--- a/Datatester.xlsx
+++ b/Datatester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hofma\AirlinePlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903241C-F649-4684-8428-F2900F78DA7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43763F09-C4BA-4B43-BD42-AA4E14D5FA6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412" xr2:uid="{DBAF1A51-0930-4619-8D91-CBD9A41A01E6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="560">
   <si>
     <t>x_0,1,</t>
   </si>
@@ -1347,148 +1347,370 @@
     <t>z_22,0_3,"2.0"</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Munich</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Lisbon</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>Warsaw</t>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-  </si>
-  <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>Heraklion</t>
-  </si>
-  <si>
-    <t>Reykjavik</t>
-  </si>
-  <si>
-    <t>Palermo</t>
-  </si>
-  <si>
-    <t>Madeira</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>EGLL</t>
-  </si>
-  <si>
-    <t>LFPG</t>
-  </si>
-  <si>
-    <t>EHAM</t>
-  </si>
-  <si>
-    <t>EDDF</t>
-  </si>
-  <si>
-    <t>LEMF</t>
-  </si>
-  <si>
-    <t>LEBL</t>
-  </si>
-  <si>
-    <t>EDDM</t>
-  </si>
-  <si>
-    <t>LIRF</t>
-  </si>
-  <si>
-    <t>EIDW</t>
-  </si>
-  <si>
-    <t>ESSA</t>
-  </si>
-  <si>
-    <t>LPPT</t>
-  </si>
-  <si>
-    <t>EDDT</t>
-  </si>
-  <si>
-    <t>EFHK</t>
-  </si>
-  <si>
-    <t>EPWA</t>
-  </si>
-  <si>
-    <t>EGPH</t>
-  </si>
-  <si>
-    <t>LROP</t>
-  </si>
-  <si>
-    <t>LGIR</t>
-  </si>
-  <si>
-    <t>BIKF</t>
-  </si>
-  <si>
-    <t>LICJ</t>
-  </si>
-  <si>
-    <t>LPMA</t>
-  </si>
-  <si>
-    <t>KJFK</t>
-  </si>
-  <si>
-    <t>KIAH</t>
-  </si>
-  <si>
-    <t>KLAX</t>
-  </si>
-  <si>
-    <t>KORD</t>
+    <t>x_0,1,"569.0"</t>
+  </si>
+  <si>
+    <t>x_0,3,"7.0"</t>
+  </si>
+  <si>
+    <t>x_0,8,"517.0"</t>
+  </si>
+  <si>
+    <t>x_0,9,"120.0"</t>
+  </si>
+  <si>
+    <t>x_0,14,"251.0"</t>
+  </si>
+  <si>
+    <t>x_0,21,"393.0"</t>
+  </si>
+  <si>
+    <t>x_0,23,"333.0"</t>
+  </si>
+  <si>
+    <t>x_1,0,"569.0"</t>
+  </si>
+  <si>
+    <t>x_3,0,"7.0"</t>
+  </si>
+  <si>
+    <t>x_8,0,"517.0"</t>
+  </si>
+  <si>
+    <t>x_9,0,"120.0"</t>
+  </si>
+  <si>
+    <t>x_14,0,"251.0"</t>
+  </si>
+  <si>
+    <t>x_21,0,"393.0"</t>
+  </si>
+  <si>
+    <t>x_23,0,"333.0"</t>
+  </si>
+  <si>
+    <t>w_1,20,"366.0"</t>
+  </si>
+  <si>
+    <t>w_1,21,"97.0"</t>
+  </si>
+  <si>
+    <t>w_1,22,"198.0"</t>
+  </si>
+  <si>
+    <t>w_2,20,"269.0"</t>
+  </si>
+  <si>
+    <t>w_3,22,"33.0"</t>
+  </si>
+  <si>
+    <t>w_5,22,"63.0"</t>
+  </si>
+  <si>
+    <t>w_7,21,"101.0"</t>
+  </si>
+  <si>
+    <t>w_11,20,"378.0"</t>
+  </si>
+  <si>
+    <t>w_13,20,"137.0"</t>
+  </si>
+  <si>
+    <t>w_15,21,"1.0"</t>
+  </si>
+  <si>
+    <t>w_16,23,"7.0"</t>
+  </si>
+  <si>
+    <t>w_17,18,"2.0"</t>
+  </si>
+  <si>
+    <t>w_18,17,"2.0"</t>
+  </si>
+  <si>
+    <t>w_18,20,"11.0"</t>
+  </si>
+  <si>
+    <t>w_18,21,"69.0"</t>
+  </si>
+  <si>
+    <t>w_20,1,"366.0"</t>
+  </si>
+  <si>
+    <t>w_20,2,"269.0"</t>
+  </si>
+  <si>
+    <t>w_20,11,"378.0"</t>
+  </si>
+  <si>
+    <t>w_20,13,"137.0"</t>
+  </si>
+  <si>
+    <t>w_20,18,"11.0"</t>
+  </si>
+  <si>
+    <t>w_21,1,"97.0"</t>
+  </si>
+  <si>
+    <t>w_21,7,"101.0"</t>
+  </si>
+  <si>
+    <t>w_21,15,"1.0"</t>
+  </si>
+  <si>
+    <t>w_21,18,"69.0"</t>
+  </si>
+  <si>
+    <t>w_22,1,"198.0"</t>
+  </si>
+  <si>
+    <t>w_22,3,"33.0"</t>
+  </si>
+  <si>
+    <t>w_22,5,"63.0"</t>
+  </si>
+  <si>
+    <t>w_23,16,"7.0"</t>
+  </si>
+  <si>
+    <t>z_0,1_0,"12.0"</t>
+  </si>
+  <si>
+    <t>z_0,1_1,"10.0"</t>
+  </si>
+  <si>
+    <t>z_0,1_4,"1.0"</t>
+  </si>
+  <si>
+    <t>z_0,2_0,"5.0"</t>
+  </si>
+  <si>
+    <t>z_0,2_1,"2.0"</t>
+  </si>
+  <si>
+    <t>z_0,2_2,"5.0"</t>
+  </si>
+  <si>
+    <t>z_0,5_1,"2.0"</t>
+  </si>
+  <si>
+    <t>z_0,8_0,"2.0"</t>
+  </si>
+  <si>
+    <t>z_0,8_2,"4.0"</t>
+  </si>
+  <si>
+    <t>z_0,9_0,"2.0"</t>
+  </si>
+  <si>
+    <t>z_0,9_1,"1.0"</t>
+  </si>
+  <si>
+    <t>z_0,11_2,"7.0"</t>
+  </si>
+  <si>
+    <t>z_0,13_2,"2.0"</t>
+  </si>
+  <si>
+    <t>z_0,14_0,"1.0"</t>
+  </si>
+  <si>
+    <t>z_0,14_1,"2.0"</t>
+  </si>
+  <si>
+    <t>z_0,14_2,"1.0"</t>
+  </si>
+  <si>
+    <t>z_0,20_2,"25.0"</t>
+  </si>
+  <si>
+    <t>z_0,21_4,"2.0"</t>
+  </si>
+  <si>
+    <t>z_0,22_4,"3.0"</t>
+  </si>
+  <si>
+    <t>z_0,23_4,"1.0"</t>
+  </si>
+  <si>
+    <t>z_1,0_0,"12.0"</t>
+  </si>
+  <si>
+    <t>z_1,0_1,"10.0"</t>
+  </si>
+  <si>
+    <t>z_1,0_4,"1.0"</t>
+  </si>
+  <si>
+    <t>z_2,0_0,"5.0"</t>
+  </si>
+  <si>
+    <t>z_2,0_1,"2.0"</t>
+  </si>
+  <si>
+    <t>z_2,0_2,"5.0"</t>
+  </si>
+  <si>
+    <t>z_5,0_1,"2.0"</t>
+  </si>
+  <si>
+    <t>z_8,0_0,"2.0"</t>
+  </si>
+  <si>
+    <t>z_8,0_2,"4.0"</t>
+  </si>
+  <si>
+    <t>z_9,0_0,"2.0"</t>
+  </si>
+  <si>
+    <t>z_9,0_1,"1.0"</t>
+  </si>
+  <si>
+    <t>z_11,0_2,"7.0"</t>
+  </si>
+  <si>
+    <t>z_13,0_2,"2.0"</t>
+  </si>
+  <si>
+    <t>z_14,0_0,"1.0"</t>
+  </si>
+  <si>
+    <t>z_14,0_1,"2.0"</t>
+  </si>
+  <si>
+    <t>z_14,0_2,"1.0"</t>
+  </si>
+  <si>
+    <t>z_20,0_2,"25.0"</t>
+  </si>
+  <si>
+    <t>z_21,0_4,"2.0"</t>
+  </si>
+  <si>
+    <t>z_22,0_4,"3.0"</t>
+  </si>
+  <si>
+    <t>z_23,0_4,"1.0"</t>
+  </si>
+  <si>
+    <t>m_4,"2.0"</t>
+  </si>
+  <si>
+    <t>x_0,3,"237.0"</t>
+  </si>
+  <si>
+    <t>x_0,5,"146.0"</t>
+  </si>
+  <si>
+    <t>x_0,8,"513.0"</t>
+  </si>
+  <si>
+    <t>x_3,0,"237.0"</t>
+  </si>
+  <si>
+    <t>x_5,0,"146.0"</t>
+  </si>
+  <si>
+    <t>x_8,0,"513.0"</t>
+  </si>
+  <si>
+    <t>w_1,17,"2.0"</t>
+  </si>
+  <si>
+    <t>w_1,20,"135.0"</t>
+  </si>
+  <si>
+    <t>w_2,20,"9.0"</t>
+  </si>
+  <si>
+    <t>w_3,20,"100.0"</t>
+  </si>
+  <si>
+    <t>w_6,20,"301.0"</t>
+  </si>
+  <si>
+    <t>w_7,20,"253.0"</t>
+  </si>
+  <si>
+    <t>w_7,22,"23.0"</t>
+  </si>
+  <si>
+    <t>w_11,20,"146.0"</t>
+  </si>
+  <si>
+    <t>w_17,1,"2.0"</t>
+  </si>
+  <si>
+    <t>w_20,1,"135.0"</t>
+  </si>
+  <si>
+    <t>w_20,2,"9.0"</t>
+  </si>
+  <si>
+    <t>w_20,3,"100.0"</t>
+  </si>
+  <si>
+    <t>w_20,6,"301.0"</t>
+  </si>
+  <si>
+    <t>w_20,7,"253.0"</t>
+  </si>
+  <si>
+    <t>w_20,11,"146.0"</t>
+  </si>
+  <si>
+    <t>w_22,7,"23.0"</t>
+  </si>
+  <si>
+    <t>z_0,1_0,"15.0"</t>
+  </si>
+  <si>
+    <t>z_0,1_1,"7.0"</t>
+  </si>
+  <si>
+    <t>z_0,2_0,"6.0"</t>
+  </si>
+  <si>
+    <t>z_0,2_1,"5.0"</t>
+  </si>
+  <si>
+    <t>z_0,2_2,"1.0"</t>
+  </si>
+  <si>
+    <t>z_0,5_0,"1.0"</t>
+  </si>
+  <si>
+    <t>z_0,11_1,"2.0"</t>
+  </si>
+  <si>
+    <t>z_0,20_2,"18.0"</t>
+  </si>
+  <si>
+    <t>z_1,0_0,"15.0"</t>
+  </si>
+  <si>
+    <t>z_1,0_1,"7.0"</t>
+  </si>
+  <si>
+    <t>z_2,0_0,"6.0"</t>
+  </si>
+  <si>
+    <t>z_2,0_1,"5.0"</t>
+  </si>
+  <si>
+    <t>z_2,0_2,"1.0"</t>
+  </si>
+  <si>
+    <t>z_5,0_0,"1.0"</t>
+  </si>
+  <si>
+    <t>z_11,0_1,"2.0"</t>
+  </si>
+  <si>
+    <t>z_20,0_2,"18.0"</t>
+  </si>
+  <si>
+    <t>m_2,"4.0"</t>
   </si>
 </sst>
 </file>
@@ -1850,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E87DD40-E9AD-45D9-9816-EFE2CA6BA7AE}">
   <dimension ref="A1:AD171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1860,17 +2082,25 @@
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>379</v>
       </c>
       <c r="E1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1886,8 +2116,14 @@
       <c r="F2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1903,8 +2139,14 @@
       <c r="F3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1920,8 +2162,14 @@
       <c r="F4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2185,14 @@
       <c r="F5" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1954,8 +2208,14 @@
       <c r="F6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1971,8 +2231,14 @@
       <c r="F7" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1988,8 +2254,14 @@
       <c r="F8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2005,8 +2277,14 @@
       <c r="F9" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2022,8 +2300,14 @@
       <c r="F10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2039,8 +2323,14 @@
       <c r="F11" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2056,8 +2346,14 @@
       <c r="F12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2073,8 +2369,14 @@
       <c r="F13" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2090,8 +2392,14 @@
       <c r="F14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2107,8 +2415,14 @@
       <c r="F15" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2124,8 +2438,14 @@
       <c r="F16" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -2141,8 +2461,14 @@
       <c r="F17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2158,8 +2484,14 @@
       <c r="F18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2175,8 +2507,14 @@
       <c r="F19" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2195,8 +2533,14 @@
       <c r="F20" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>443</v>
+      </c>
+      <c r="H20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2215,8 +2559,14 @@
       <c r="F21" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2232,8 +2582,14 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>444</v>
+      </c>
+      <c r="H22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2249,8 +2605,14 @@
       <c r="F23" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>445</v>
+      </c>
+      <c r="H23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2266,8 +2628,14 @@
       <c r="F24" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -2283,8 +2651,14 @@
       <c r="F25" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>446</v>
+      </c>
+      <c r="H25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2300,8 +2674,14 @@
       <c r="F26" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -2317,8 +2697,14 @@
       <c r="F27" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2334,8 +2720,14 @@
       <c r="F28" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>393</v>
+      </c>
+      <c r="H28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -2351,8 +2743,14 @@
       <c r="F29" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2368,8 +2766,14 @@
       <c r="F30" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>447</v>
+      </c>
+      <c r="H30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2385,8 +2789,14 @@
       <c r="F31" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>448</v>
+      </c>
+      <c r="H31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2402,8 +2812,14 @@
       <c r="F32" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -2419,8 +2835,14 @@
       <c r="F33" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2436,8 +2858,14 @@
       <c r="F34" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>395</v>
+      </c>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2453,8 +2881,14 @@
       <c r="F35" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2470,8 +2904,14 @@
       <c r="F36" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>449</v>
+      </c>
+      <c r="H36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2487,8 +2927,14 @@
       <c r="F37" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2504,8 +2950,14 @@
       <c r="F38" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2521,8 +2973,14 @@
       <c r="F39" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2538,8 +2996,14 @@
       <c r="F40" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2555,8 +3019,14 @@
       <c r="F41" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2572,8 +3042,14 @@
       <c r="F42" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>450</v>
+      </c>
+      <c r="H42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2589,8 +3065,14 @@
       <c r="F43" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -2609,8 +3091,14 @@
       <c r="F44" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>451</v>
+      </c>
+      <c r="H44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2629,8 +3117,14 @@
       <c r="F45" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>452</v>
+      </c>
+      <c r="H45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -2646,8 +3140,14 @@
       <c r="F46" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>453</v>
+      </c>
+      <c r="H46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -2663,8 +3163,14 @@
       <c r="F47" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>454</v>
+      </c>
+      <c r="H47" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -2683,8 +3189,14 @@
       <c r="F48" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>455</v>
+      </c>
+      <c r="H48" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -2703,8 +3215,14 @@
       <c r="F49" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>400</v>
+      </c>
+      <c r="H49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -2720,8 +3238,14 @@
       <c r="F50" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>456</v>
+      </c>
+      <c r="H50" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2740,8 +3264,14 @@
       <c r="F51" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>457</v>
+      </c>
+      <c r="H51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -2757,8 +3287,14 @@
       <c r="F52" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -2774,8 +3310,14 @@
       <c r="F53" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>458</v>
+      </c>
+      <c r="H53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2794,8 +3336,14 @@
       <c r="F54" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -2811,8 +3359,14 @@
       <c r="F55" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>459</v>
+      </c>
+      <c r="H55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -2828,8 +3382,14 @@
       <c r="F56" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>460</v>
+      </c>
+      <c r="H56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -2845,8 +3405,14 @@
       <c r="F57" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>247</v>
+      </c>
+      <c r="H57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -2862,8 +3428,14 @@
       <c r="F58" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>461</v>
+      </c>
+      <c r="H58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -2879,8 +3451,14 @@
       <c r="F59" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>255</v>
+      </c>
+      <c r="H59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -2896,8 +3474,14 @@
       <c r="F60" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>256</v>
+      </c>
+      <c r="H60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -2916,8 +3500,14 @@
       <c r="F61" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>407</v>
+      </c>
+      <c r="H61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -2933,8 +3523,14 @@
       <c r="F62" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>257</v>
+      </c>
+      <c r="H62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -2953,8 +3549,14 @@
       <c r="F63" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>462</v>
+      </c>
+      <c r="H63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -2970,8 +3572,14 @@
       <c r="F64" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -2987,8 +3595,14 @@
       <c r="F65" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>463</v>
+      </c>
+      <c r="H65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -3004,8 +3618,14 @@
       <c r="F66" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>464</v>
+      </c>
+      <c r="H66" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -3024,8 +3644,14 @@
       <c r="F67" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>465</v>
+      </c>
+      <c r="H67" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -3044,8 +3670,14 @@
       <c r="F68" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>466</v>
+      </c>
+      <c r="H68" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -3061,8 +3693,14 @@
       <c r="F69" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>268</v>
+      </c>
+      <c r="H69" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -3078,8 +3716,14 @@
       <c r="F70" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>467</v>
+      </c>
+      <c r="H70" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -3098,8 +3742,14 @@
       <c r="F71" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>468</v>
+      </c>
+      <c r="H71" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -3115,8 +3765,14 @@
       <c r="F72" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>410</v>
+      </c>
+      <c r="H72" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -3132,8 +3788,14 @@
       <c r="F73" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>272</v>
+      </c>
+      <c r="H73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -3149,8 +3811,14 @@
       <c r="F74" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>469</v>
+      </c>
+      <c r="H74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -3169,8 +3837,14 @@
       <c r="F75" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>470</v>
+      </c>
+      <c r="H75" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -3186,8 +3860,14 @@
       <c r="F76" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>276</v>
+      </c>
+      <c r="H76" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -3203,8 +3883,14 @@
       <c r="F77" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>277</v>
+      </c>
+      <c r="H77" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -3220,8 +3906,14 @@
       <c r="F78" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>471</v>
+      </c>
+      <c r="H78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -3237,8 +3929,14 @@
       <c r="F79" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>472</v>
+      </c>
+      <c r="H79" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -3256,6 +3954,12 @@
       </c>
       <c r="F80" t="s">
         <v>415</v>
+      </c>
+      <c r="G80" t="s">
+        <v>473</v>
+      </c>
+      <c r="H80" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
@@ -3274,6 +3978,12 @@
       <c r="F81" t="s">
         <v>359</v>
       </c>
+      <c r="G81" t="s">
+        <v>474</v>
+      </c>
+      <c r="H81" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -3291,6 +4001,12 @@
       <c r="F82" t="s">
         <v>282</v>
       </c>
+      <c r="G82" t="s">
+        <v>413</v>
+      </c>
+      <c r="H82" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -3308,6 +4024,12 @@
       <c r="F83" t="s">
         <v>360</v>
       </c>
+      <c r="G83" t="s">
+        <v>475</v>
+      </c>
+      <c r="H83" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -3325,6 +4047,12 @@
       <c r="F84" t="s">
         <v>416</v>
       </c>
+      <c r="G84" t="s">
+        <v>476</v>
+      </c>
+      <c r="H84" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -3342,78 +4070,34 @@
       <c r="F85" t="s">
         <v>417</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y85" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z85" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA85" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB85" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="AC85" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="AD85" s="2" t="s">
-        <v>461</v>
-      </c>
+      <c r="G85" t="s">
+        <v>477</v>
+      </c>
+      <c r="H85" t="s">
+        <v>546</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -3431,78 +4115,34 @@
       <c r="F86" t="s">
         <v>418</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="V86" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="W86" s="2" t="s">
+      <c r="G86" t="s">
         <v>478</v>
       </c>
-      <c r="X86" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y86" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="Z86" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA86" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="AB86" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC86" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD86" s="2" t="s">
-        <v>485</v>
-      </c>
+      <c r="H86" t="s">
+        <v>547</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -3520,78 +4160,34 @@
       <c r="F87" t="s">
         <v>419</v>
       </c>
-      <c r="G87" s="2">
-        <v>1</v>
-      </c>
-      <c r="H87" s="2">
-        <v>2</v>
-      </c>
-      <c r="I87" s="2">
-        <v>3</v>
-      </c>
-      <c r="J87" s="2">
-        <v>4</v>
-      </c>
-      <c r="K87" s="2">
-        <v>5</v>
-      </c>
-      <c r="L87" s="2">
-        <v>6</v>
-      </c>
-      <c r="M87" s="2">
-        <v>7</v>
-      </c>
-      <c r="N87" s="2">
-        <v>8</v>
-      </c>
-      <c r="O87" s="2">
-        <v>9</v>
-      </c>
-      <c r="P87" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q87" s="2">
-        <v>11</v>
-      </c>
-      <c r="R87" s="2">
-        <v>12</v>
-      </c>
-      <c r="S87" s="2">
-        <v>13</v>
-      </c>
-      <c r="T87" s="2">
-        <v>14</v>
-      </c>
-      <c r="U87" s="2">
-        <v>15</v>
-      </c>
-      <c r="V87" s="2">
-        <v>16</v>
-      </c>
-      <c r="W87" s="2">
-        <v>17</v>
-      </c>
-      <c r="X87" s="2">
-        <v>18</v>
-      </c>
-      <c r="Y87" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z87" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA87" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB87" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC87" s="2">
-        <v>23</v>
-      </c>
-      <c r="AD87" s="2">
-        <v>24</v>
-      </c>
+      <c r="G87" t="s">
+        <v>281</v>
+      </c>
+      <c r="H87" t="s">
+        <v>361</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -3609,78 +4205,34 @@
       <c r="F88" t="s">
         <v>420</v>
       </c>
-      <c r="G88" s="3">
-        <v>51.470600000000005</v>
-      </c>
-      <c r="H88" s="3">
-        <v>49.012798310000001</v>
-      </c>
-      <c r="I88" s="3">
-        <v>52.308601380000006</v>
-      </c>
-      <c r="J88" s="3">
-        <v>50.033333300000002</v>
-      </c>
-      <c r="K88" s="3">
-        <v>40.471926000000003</v>
-      </c>
-      <c r="L88" s="3">
-        <v>41.297100070000006</v>
-      </c>
-      <c r="M88" s="3">
-        <v>48.353801730000001</v>
-      </c>
-      <c r="N88" s="3">
-        <v>41.800277800000003</v>
-      </c>
-      <c r="O88" s="3">
-        <v>53.421298980000003</v>
-      </c>
-      <c r="P88" s="3">
-        <v>59.651901250000002</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>38.781299590000003</v>
-      </c>
-      <c r="R88" s="3">
-        <v>52.55970001</v>
-      </c>
-      <c r="S88" s="3">
-        <v>60.317199710000004</v>
-      </c>
-      <c r="T88" s="3">
-        <v>52.165699010000004</v>
-      </c>
-      <c r="U88" s="3">
-        <v>55.950000760000002</v>
-      </c>
-      <c r="V88" s="3">
-        <v>44.571111100000003</v>
-      </c>
-      <c r="W88" s="3">
-        <v>35.339698790000007</v>
-      </c>
-      <c r="X88" s="3">
-        <v>63.985000000000007</v>
-      </c>
-      <c r="Y88" s="3">
-        <v>38.110802000000007</v>
-      </c>
-      <c r="Z88" s="3">
-        <v>32.697898860000002</v>
-      </c>
-      <c r="AA88" s="3">
-        <v>40.639722200000001</v>
-      </c>
-      <c r="AB88" s="3">
-        <v>29.990220000000001</v>
-      </c>
-      <c r="AC88" s="3">
-        <v>33.942500000000003</v>
-      </c>
-      <c r="AD88" s="3">
-        <v>41.978611100000002</v>
-      </c>
+      <c r="G88" t="s">
+        <v>282</v>
+      </c>
+      <c r="H88" t="s">
+        <v>362</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -3701,78 +4253,34 @@
       <c r="F89" t="s">
         <v>361</v>
       </c>
-      <c r="G89" s="3">
-        <v>-0.4619410000000001</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2.5499999520000003</v>
-      </c>
-      <c r="I89" s="3">
-        <v>4.7638897900000003</v>
-      </c>
-      <c r="J89" s="3">
-        <v>8.5705556000000005</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-3.56264</v>
-      </c>
-      <c r="L89" s="3">
-        <v>2.0784599780000002</v>
-      </c>
-      <c r="M89" s="3">
-        <v>11.786100390000001</v>
-      </c>
-      <c r="N89" s="3">
-        <v>12.238888900000001</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-6.2700700760000005</v>
-      </c>
-      <c r="P89" s="3">
-        <v>17.918600080000001</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-9.1359195710000005</v>
-      </c>
-      <c r="R89" s="3">
-        <v>13.287699700000001</v>
-      </c>
-      <c r="S89" s="3">
-        <v>24.963300700000001</v>
-      </c>
-      <c r="T89" s="3">
-        <v>20.967100140000003</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-3.3724999430000002</v>
-      </c>
-      <c r="V89" s="3">
-        <v>26.085000000000001</v>
-      </c>
-      <c r="W89" s="3">
-        <v>25.18029976</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-22.605555556000002</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>13.313300000000002</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-16.774499890000001</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-73.778889000000007</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-95.336780000000005</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>-118.40805560000001</v>
-      </c>
-      <c r="AD89" s="3">
-        <v>-87.905000000000001</v>
-      </c>
+      <c r="G89" t="s">
+        <v>283</v>
+      </c>
+      <c r="H89" t="s">
+        <v>548</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -3793,78 +4301,34 @@
       <c r="F90" t="s">
         <v>362</v>
       </c>
-      <c r="G90" s="1">
-        <v>3200</v>
-      </c>
-      <c r="H90" s="1">
-        <v>3100</v>
-      </c>
-      <c r="I90" s="1">
-        <v>3400</v>
-      </c>
-      <c r="J90" s="1">
-        <v>3400</v>
-      </c>
-      <c r="K90" s="1">
-        <v>3600</v>
-      </c>
-      <c r="L90" s="1">
-        <v>2700</v>
-      </c>
-      <c r="M90" s="1">
-        <v>2800</v>
-      </c>
-      <c r="N90" s="1">
-        <v>2800</v>
-      </c>
-      <c r="O90" s="1">
-        <v>2600</v>
-      </c>
-      <c r="P90" s="1">
-        <v>2700</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>2600</v>
-      </c>
-      <c r="R90" s="1">
-        <v>2900</v>
-      </c>
-      <c r="S90" s="1">
-        <v>2700</v>
-      </c>
-      <c r="T90" s="1">
-        <v>2500</v>
-      </c>
-      <c r="U90" s="1">
-        <v>2200</v>
-      </c>
-      <c r="V90" s="1">
-        <v>1900</v>
-      </c>
-      <c r="W90" s="1">
-        <v>1800</v>
-      </c>
-      <c r="X90" s="1">
-        <v>2200</v>
-      </c>
-      <c r="Y90" s="1">
-        <v>2300</v>
-      </c>
-      <c r="Z90" s="1">
-        <v>1900</v>
-      </c>
-      <c r="AA90" s="1">
-        <v>3500</v>
-      </c>
-      <c r="AB90" s="1">
-        <v>3500</v>
-      </c>
-      <c r="AC90" s="1">
-        <v>3500</v>
-      </c>
-      <c r="AD90" s="1">
-        <v>3500</v>
-      </c>
+      <c r="G90" t="s">
+        <v>479</v>
+      </c>
+      <c r="H90" t="s">
+        <v>364</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -3882,78 +4346,34 @@
       <c r="F91" t="s">
         <v>363</v>
       </c>
-      <c r="G91" s="1">
-        <v>100000</v>
-      </c>
-      <c r="H91" s="1">
-        <v>23</v>
-      </c>
-      <c r="I91" s="1">
-        <v>12</v>
-      </c>
-      <c r="J91" s="1">
-        <v>3</v>
-      </c>
-      <c r="K91" s="1">
-        <v>1</v>
-      </c>
-      <c r="L91" s="1">
-        <v>3</v>
-      </c>
-      <c r="M91" s="1">
-        <v>5</v>
-      </c>
-      <c r="N91" s="1">
-        <v>4</v>
-      </c>
-      <c r="O91" s="1">
-        <v>6</v>
-      </c>
-      <c r="P91" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>3</v>
-      </c>
-      <c r="R91" s="1">
-        <v>7</v>
-      </c>
-      <c r="S91" s="1">
-        <v>3</v>
-      </c>
-      <c r="T91" s="1">
-        <v>2</v>
-      </c>
-      <c r="U91" s="1">
-        <v>4</v>
-      </c>
-      <c r="V91" s="1">
-        <v>2</v>
-      </c>
-      <c r="W91" s="1">
-        <v>3</v>
-      </c>
-      <c r="X91" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y91" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z91" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA91" s="1">
-        <v>27</v>
-      </c>
-      <c r="AB91" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC91" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD91" s="1">
-        <v>3</v>
-      </c>
+      <c r="G91" t="s">
+        <v>480</v>
+      </c>
+      <c r="H91" t="s">
+        <v>365</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -3971,6 +4391,12 @@
       <c r="F92" t="s">
         <v>364</v>
       </c>
+      <c r="G92" t="s">
+        <v>481</v>
+      </c>
+      <c r="H92" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -3988,6 +4414,12 @@
       <c r="F93" t="s">
         <v>365</v>
       </c>
+      <c r="G93" t="s">
+        <v>482</v>
+      </c>
+      <c r="H93" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -4005,6 +4437,12 @@
       <c r="F94" t="s">
         <v>366</v>
       </c>
+      <c r="G94" t="s">
+        <v>483</v>
+      </c>
+      <c r="H94" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -4022,6 +4460,12 @@
       <c r="F95" t="s">
         <v>421</v>
       </c>
+      <c r="G95" t="s">
+        <v>484</v>
+      </c>
+      <c r="H95" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -4039,8 +4483,14 @@
       <c r="F96" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>485</v>
+      </c>
+      <c r="H96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -4056,8 +4506,14 @@
       <c r="F97" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>361</v>
+      </c>
+      <c r="H97" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -4073,8 +4529,14 @@
       <c r="F98" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>362</v>
+      </c>
+      <c r="H98" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -4090,8 +4552,14 @@
       <c r="F99" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>486</v>
+      </c>
+      <c r="H99" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -4110,8 +4578,14 @@
       <c r="F100" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>364</v>
+      </c>
+      <c r="H100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>72</v>
       </c>
@@ -4130,8 +4604,14 @@
       <c r="F101" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>365</v>
+      </c>
+      <c r="H101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>73</v>
       </c>
@@ -4150,8 +4630,14 @@
       <c r="F102" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>366</v>
+      </c>
+      <c r="H102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -4170,8 +4656,14 @@
       <c r="F103" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>487</v>
+      </c>
+      <c r="H103" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -4190,8 +4682,14 @@
       <c r="F104" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>488</v>
+      </c>
+      <c r="H104" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -4210,8 +4708,14 @@
       <c r="F105" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>489</v>
+      </c>
+      <c r="H105" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>77</v>
       </c>
@@ -4230,8 +4734,14 @@
       <c r="F106" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>490</v>
+      </c>
+      <c r="H106" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>78</v>
       </c>
@@ -4250,8 +4760,14 @@
       <c r="F107" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>296</v>
+      </c>
+      <c r="H107" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -4270,8 +4786,14 @@
       <c r="F108" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>491</v>
+      </c>
+      <c r="H108" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>80</v>
       </c>
@@ -4290,8 +4812,14 @@
       <c r="F109" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>423</v>
+      </c>
+      <c r="H109" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -4310,8 +4838,14 @@
       <c r="F110" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>492</v>
+      </c>
+      <c r="H110" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -4330,8 +4864,14 @@
       <c r="F111" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>493</v>
+      </c>
+      <c r="H111" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -4350,8 +4890,14 @@
       <c r="F112" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>494</v>
+      </c>
+      <c r="H112" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>84</v>
       </c>
@@ -4370,8 +4916,14 @@
       <c r="F113" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>495</v>
+      </c>
+      <c r="H113" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>85</v>
       </c>
@@ -4390,8 +4942,14 @@
       <c r="F114" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>302</v>
+      </c>
+      <c r="H114" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -4410,8 +4968,14 @@
       <c r="F115" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>303</v>
+      </c>
+      <c r="H115" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -4430,8 +4994,14 @@
       <c r="F116" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>367</v>
+      </c>
+      <c r="H116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>88</v>
       </c>
@@ -4451,8 +5021,14 @@
       <c r="F117" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>305</v>
+      </c>
+      <c r="H117" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>159</v>
       </c>
@@ -4468,8 +5044,14 @@
       <c r="F118" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>496</v>
+      </c>
+      <c r="H118" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>160</v>
       </c>
@@ -4485,8 +5067,14 @@
       <c r="F119" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>497</v>
+      </c>
+      <c r="H119" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>89</v>
       </c>
@@ -4502,8 +5090,14 @@
       <c r="F120" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>498</v>
+      </c>
+      <c r="H120" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -4519,8 +5113,14 @@
       <c r="F121" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>499</v>
+      </c>
+      <c r="H121" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>91</v>
       </c>
@@ -4536,8 +5136,14 @@
       <c r="F122" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>500</v>
+      </c>
+      <c r="H122" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>92</v>
       </c>
@@ -4553,8 +5159,14 @@
       <c r="F123" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>501</v>
+      </c>
+      <c r="H123" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>93</v>
       </c>
@@ -4570,8 +5182,14 @@
       <c r="F124" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>502</v>
+      </c>
+      <c r="H124" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -4587,8 +5205,14 @@
       <c r="F125" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>503</v>
+      </c>
+      <c r="H125" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>95</v>
       </c>
@@ -4604,8 +5228,14 @@
       <c r="F126" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>504</v>
+      </c>
+      <c r="H126" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -4621,8 +5251,14 @@
       <c r="F127" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>505</v>
+      </c>
+      <c r="H127" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>97</v>
       </c>
@@ -4638,8 +5274,14 @@
       <c r="F128" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>369</v>
+      </c>
+      <c r="H128" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -4655,8 +5297,14 @@
       <c r="F129" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>370</v>
+      </c>
+      <c r="H129" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -4672,8 +5320,14 @@
       <c r="F130" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>506</v>
+      </c>
+      <c r="H130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -4689,8 +5343,14 @@
       <c r="F131" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>372</v>
+      </c>
+      <c r="H131" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>101</v>
       </c>
@@ -4706,8 +5366,14 @@
       <c r="F132" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" t="s">
+        <v>373</v>
+      </c>
+      <c r="H132" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>102</v>
       </c>
@@ -4723,8 +5389,14 @@
       <c r="F133" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>374</v>
+      </c>
+      <c r="H133" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>103</v>
       </c>
@@ -4740,8 +5412,14 @@
       <c r="F134" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>507</v>
+      </c>
+      <c r="H134" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>104</v>
       </c>
@@ -4757,8 +5435,14 @@
       <c r="F135" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
+        <v>508</v>
+      </c>
+      <c r="H135" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>105</v>
       </c>
@@ -4774,8 +5458,14 @@
       <c r="F136" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" t="s">
+        <v>509</v>
+      </c>
+      <c r="H136" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>106</v>
       </c>
@@ -4791,8 +5481,14 @@
       <c r="F137" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" t="s">
+        <v>510</v>
+      </c>
+      <c r="H137" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>107</v>
       </c>
@@ -4808,8 +5504,14 @@
       <c r="F138" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
+        <v>324</v>
+      </c>
+      <c r="H138" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>108</v>
       </c>
@@ -4825,8 +5527,11 @@
       <c r="F139" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -4839,8 +5544,11 @@
       <c r="E140">
         <v>224063</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>109</v>
       </c>
@@ -4850,8 +5558,11 @@
       <c r="D141" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -4861,8 +5572,11 @@
       <c r="D142" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -4872,8 +5586,11 @@
       <c r="D143" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>110</v>
       </c>
@@ -4883,8 +5600,11 @@
       <c r="D144" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G144" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>111</v>
       </c>
@@ -4894,8 +5614,11 @@
       <c r="D145" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -4905,8 +5628,11 @@
       <c r="D146" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G146" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -4916,8 +5642,11 @@
       <c r="D147" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -4927,8 +5656,11 @@
       <c r="D148" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>113</v>
       </c>
@@ -4938,8 +5670,11 @@
       <c r="D149" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G149" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -4949,8 +5684,11 @@
       <c r="D150" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>114</v>
       </c>
@@ -4960,8 +5698,11 @@
       <c r="D151" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -4971,8 +5712,11 @@
       <c r="D152" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>115</v>
       </c>
@@ -4982,8 +5726,11 @@
       <c r="D153" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>116</v>
       </c>
@@ -4993,8 +5740,11 @@
       <c r="D154" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>117</v>
       </c>
@@ -5005,7 +5755,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>118</v>
       </c>
@@ -5016,7 +5766,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -5027,7 +5777,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>120</v>
       </c>
@@ -5038,7 +5788,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>121</v>
       </c>
@@ -5049,7 +5799,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>122</v>
       </c>
